--- a/template/BC78-Template_Task-Nhom3.xlsx
+++ b/template/BC78-Template_Task-Nhom3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CyberSoft\JS\JS_Capstone_Nhom3\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB518C-8194-4BC5-858B-60402845B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D580F2-DD11-4D9C-8573-A9DB32C84951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Record Video &amp; Upload Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Add Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Edit Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Delete Product</t>
   </si>
 </sst>
 </file>
@@ -356,18 +365,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -629,7 +627,7 @@
   <dimension ref="A1:J1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1062,9 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="13">
@@ -1084,7 +1084,9 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="13">
@@ -1104,7 +1106,9 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="13">
@@ -2188,12 +2192,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H10 D2:D10 D15 H15">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D22 H16:H22">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/template/BC78-Template_Task-Nhom3.xlsx
+++ b/template/BC78-Template_Task-Nhom3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CyberSoft\JS\JS_Capstone_Nhom3\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D580F2-DD11-4D9C-8573-A9DB32C84951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9758E23B-F812-4C14-BF48-CF4FB4F45ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t xml:space="preserve">      Shopping cart</t>
   </si>
   <si>
-    <t xml:space="preserve">      Reponsive Web</t>
-  </si>
-  <si>
     <t>Create &amp; Call API</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">      Delete Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Responsive Web</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:J1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11" s="15">
         <v>45647</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="15">
         <v>45640</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="15">
         <v>45635</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15">
         <v>45649</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>

--- a/template/BC78-Template_Task-Nhom3.xlsx
+++ b/template/BC78-Template_Task-Nhom3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CyberSoft\JS\JS_Capstone_Nhom3\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9758E23B-F812-4C14-BF48-CF4FB4F45ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EF430-BCA3-40D5-9BC3-F1D8A381B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t xml:space="preserve">      Responsive Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Show Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Search Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Sort Product By Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Filter</t>
   </si>
 </sst>
 </file>
@@ -624,10 +639,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1004"/>
+  <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -899,14 +914,14 @@
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B10" s="15">
+        <v>45645</v>
+      </c>
+      <c r="C10" s="15">
         <v>45646</v>
       </c>
-      <c r="C10" s="15">
-        <v>45647</v>
-      </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
@@ -914,10 +929,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="15">
-        <v>45647</v>
+        <v>45646</v>
       </c>
       <c r="G10" s="15">
-        <v>45647</v>
+        <v>45646</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -927,29 +942,29 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B11" s="15">
+        <v>45646</v>
+      </c>
+      <c r="C11" s="15">
         <v>45647</v>
       </c>
-      <c r="C11" s="15">
-        <v>45648</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="15">
-        <v>45648</v>
+        <v>45647</v>
       </c>
       <c r="G11" s="15">
-        <v>45648</v>
-      </c>
-      <c r="H11" s="13">
+        <v>45647</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -957,15 +972,15 @@
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="15">
-        <v>45640</v>
+        <v>45647</v>
       </c>
       <c r="C12" s="15">
-        <v>45641</v>
+        <v>45648</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -974,10 +989,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="15">
-        <v>45641</v>
+        <v>45648</v>
       </c>
       <c r="G12" s="15">
-        <v>45641</v>
+        <v>45648</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -989,13 +1004,13 @@
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="C13" s="15">
-        <v>45636</v>
+        <v>45641</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -1004,10 +1019,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="15">
-        <v>45636</v>
+        <v>45641</v>
       </c>
       <c r="G13" s="15">
-        <v>45636</v>
+        <v>45641</v>
       </c>
       <c r="H13" s="13">
         <v>1</v>
@@ -1017,15 +1032,15 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="15">
-        <v>45649</v>
+        <v>45635</v>
       </c>
       <c r="C14" s="15">
-        <v>45649</v>
+        <v>45636</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -1034,10 +1049,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="15">
-        <v>45649</v>
+        <v>45636</v>
       </c>
       <c r="G14" s="15">
-        <v>45649</v>
+        <v>45636</v>
       </c>
       <c r="H14" s="13">
         <v>1</v>
@@ -1049,43 +1064,51 @@
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="B15" s="15">
+        <v>45649</v>
+      </c>
+      <c r="C15" s="15">
+        <v>45649</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="15">
+        <v>45649</v>
+      </c>
+      <c r="G15" s="15">
+        <v>45649</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>24</v>
+      <c r="A16" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1107,7 +1130,7 @@
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1128,7 +1151,9 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="13">
@@ -1148,7 +1173,9 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="13">
@@ -1168,7 +1195,9 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="13">
@@ -1188,7 +1217,9 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="13">
@@ -1207,7 +1238,28 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
     <row r="24" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1269,7 @@
     <row r="30" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2189,24 +2241,25 @@
     <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H10 D2:D10 D15 H15">
+  <conditionalFormatting sqref="D16 H16 D2:D11 H2:H11">
     <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22 H16:H22">
+  <conditionalFormatting sqref="D17:D23 H17:H23">
     <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D14 H11:H14">
+  <conditionalFormatting sqref="D12:D15 H12:H15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D14 H11:H14">
+  <conditionalFormatting sqref="D12:D15 H12:H15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
